--- a/biology/Zoologie/Hydrochoerinae/Hydrochoerinae.xlsx
+++ b/biology/Zoologie/Hydrochoerinae/Hydrochoerinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hydrochoerinae sont une sous-famille de Rongeurs qui rassemble des Hystricognathes de la famille des Cavidés : les hydrochères (ou cabiaïs) et les cobayes des rochers.
 Cette sous-famille a été décrite pour la première fois en 1825 par le zoologiste britannique John Edward Gray (1800-1875).
@@ -512,15 +524,86 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon les auteurs, le genre Hydrochoerus est parfois classé dans une famille monotypique (Hydrochaeridae Gray, 1825) au lieu d'être inclus dans celle des Caviidae[2].
-Liste des genres
-Selon ITIS      (24 janv. 2013)[1] :
-genre Hydrochoerus Brisson, 1762 ou Hydrochoeris selon MSW[3] - les cabiaïs
-genre Kerodon F. Cuvier, 1825 - les cobayes des rochers
-Liste des espèces
-Selon Mammal Species of the World (version 3, 2005)  (24 janv. 2013)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon les auteurs, le genre Hydrochoerus est parfois classé dans une famille monotypique (Hydrochaeridae Gray, 1825) au lieu d'être inclus dans celle des Caviidae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hydrochoerinae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrochoerinae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (24 janv. 2013) :
+genre Hydrochoerus Brisson, 1762 ou Hydrochoeris selon MSW - les cabiaïs
+genre Kerodon F. Cuvier, 1825 - les cobayes des rochers</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hydrochoerinae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hydrochoerinae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Mammal Species of the World (version 3, 2005)  (24 janv. 2013) :
 genre Hydrochoeris Brisson, 1762 - les cabiaïs ou hydrochères
 Hydrochoeris hydrochaeris - le Capybara
 Hydrochoeris isthmius - le Cabiaï de Panama
